--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessd\Desktop\Trash Bois Project\Cheat Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEBFBCE-F124-41CB-965C-D357CB777CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2884D4-40D7-4166-B39B-4AEFEFEE24EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="492">
   <si>
     <t>Name</t>
   </si>
@@ -1934,6 +1934,9 @@
   </si>
   <si>
     <t>Iteration - Reduce</t>
+  </si>
+  <si>
+    <t>Manipulate - remove element</t>
   </si>
 </sst>
 </file>
@@ -2436,8 +2439,8 @@
   <dimension ref="A2:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,7 +3488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>180</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>30</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>209</v>
+        <v>491</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>283</v>
@@ -4434,7 +4437,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E118" xr:uid="{C09957F3-53DD-480A-8A0C-F6A44EF8D896}"/>
+  <autoFilter ref="A2:E118" xr:uid="{537FB04D-7856-48B5-B09E-CA35BFEF3569}"/>
   <hyperlinks>
     <hyperlink ref="E77" location="Misceallaneous!A3" display="Click Here" xr:uid="{39A179BB-F5F6-492C-A2EA-A01057DD70EC}"/>
     <hyperlink ref="E78" location="Misceallaneous!A4" display="Click Here" xr:uid="{6155B229-41C1-4C4C-8B9A-2884C8126661}"/>
@@ -4562,7 +4565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD231A2-3085-4E90-8727-8A9BCC8ABD46}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5929,9 +5934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117B8DBF-247C-43D9-9669-88DEBFFC7EDE}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6100,7 +6103,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>46</v>
@@ -6115,7 +6118,7 @@
     </row>
     <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>46</v>
@@ -6962,9 +6965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005A73C9-437A-4AEF-9AA8-EEEBE94EEAB9}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
